--- a/pred_ohlcv/54_21/2020-01-20 PPT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 PPT ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>44635.317</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>44635.317</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>43457.68380000001</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>43308.68380000001</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>43311.98380000001</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>43033.98380000001</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>43033.98380000001</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>43035.28380000001</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -730,7 +730,7 @@
         <v>42365.43070000001</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>45890.08112437002</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>46232.38112437003</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>46444.32042437002</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>46103.32042437002</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>54514.78702437003</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>54517.28702437003</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>54517.28702437003</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>54515.98702437003</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>54515.98702437003</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>53701.99992437003</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>53962.17022437003</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>48452.09627480002</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>48452.09627480002</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>48452.09627480002</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>43963.29127480002</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>47660.62867480001</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>47423.03107480001</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>47085.53107480001</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>47464.53107480001</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>36461.18977480001</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>36015.18977480001</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-20 PPT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 PPT ohlcv.xlsx
@@ -782,7 +782,7 @@
         <v>42365.43070000001</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>42315.43070000001</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>46232.38112437003</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>46444.32042437002</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>46103.32042437002</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>46013.27552437002</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>54300.66782437002</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>53788.33372437003</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>54514.78702437003</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>54514.78702437003</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>54517.28702437003</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>54517.28702437003</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>54515.98702437003</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
